--- a/Experiment result/Fig.3/data2.xlsx
+++ b/Experiment result/Fig.3/data2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20351"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EE340D-912C-4DE4-9C1E-47421F5902BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,11 +354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +376,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>10.893725999999999</v>
+        <v>87.149807999999993</v>
       </c>
       <c r="B2">
         <v>0.130738374684296</v>
@@ -388,7 +387,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>21.581910000000001</v>
+        <v>172.65528</v>
       </c>
       <c r="B3">
         <v>0.119509280089988</v>
@@ -399,7 +398,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>32.681178000000003</v>
+        <v>261.44942400000002</v>
       </c>
       <c r="B4">
         <v>0.114855872912382</v>
@@ -410,7 +409,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>43.164239999999999</v>
+        <v>345.31392</v>
       </c>
       <c r="B5">
         <v>8.6872712653876E-2</v>
@@ -421,7 +420,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>53.646984000000003</v>
+        <v>429.17587200000003</v>
       </c>
       <c r="B6">
         <v>9.5922395517867895E-2</v>
@@ -432,7 +431,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>69.885639999999995</v>
+        <v>559.08511999999996</v>
       </c>
       <c r="B7">
         <v>9.4803672217963902E-2</v>
@@ -443,7 +442,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>86.533181999999996</v>
+        <v>692.26545599999997</v>
       </c>
       <c r="B8">
         <v>9.2537066510303106E-2</v>
@@ -454,7 +453,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>104.62189600000001</v>
+        <v>836.97516800000005</v>
       </c>
       <c r="B9">
         <v>8.8719561814123701E-2</v>
@@ -465,7 +464,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>138.53665599999999</v>
+        <v>1108.2932479999999</v>
       </c>
       <c r="B10">
         <v>7.0251687289088899E-2</v>
@@ -476,7 +475,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>167.10564600000001</v>
+        <v>1336.8451680000001</v>
       </c>
       <c r="B11">
         <v>7.1665909859427099E-2</v>
@@ -487,7 +486,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>200.955524</v>
+        <v>1607.644192</v>
       </c>
       <c r="B12">
         <v>7.5874492605190302E-2</v>
@@ -498,7 +497,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>229.07539199999999</v>
+        <v>1832.6031359999999</v>
       </c>
       <c r="B13">
         <v>6.8845091841405207E-2</v>
@@ -509,7 +508,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>240.384872</v>
+        <v>1923.078976</v>
       </c>
       <c r="B14">
         <v>7.1279831072877997E-2</v>
@@ -520,7 +519,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>279.33157799999998</v>
+        <v>2234.6526239999998</v>
       </c>
       <c r="B15">
         <v>6.3780603403156499E-2</v>
@@ -531,7 +530,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>312.012755999999</v>
+        <v>2496.102047999992</v>
       </c>
       <c r="B16">
         <v>6.0190184323550402E-2</v>
